--- a/src/test/resources/SMSTestData.xlsx
+++ b/src/test/resources/SMSTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Selenium_class_Workspace\StudentManagementSystem\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1F2F5B-BB18-4676-BBF0-7EB641819A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73067594-5A6B-4BD0-BD88-F8ECED70FA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2235" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{8AB5AE68-3145-49E8-BFBA-87A044686F97}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{8AB5AE68-3145-49E8-BFBA-87A044686F97}"/>
   </bookViews>
   <sheets>
     <sheet name="AdminGrade" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="LogInDetails" sheetId="4" r:id="rId3"/>
     <sheet name="AdminCreateTeacher" sheetId="2" r:id="rId4"/>
     <sheet name="addstudent" sheetId="3" r:id="rId5"/>
+    <sheet name="pricelist" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="84">
   <si>
     <t>name</t>
   </si>
@@ -197,6 +198,99 @@
   </si>
   <si>
     <t>301</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 (Pink, 128 GB)</t>
+  </si>
+  <si>
+    <t>52999</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 (Blue, 128 GB)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 Pro Max (Alpine Green, 1 TB)</t>
+  </si>
+  <si>
+    <t>179900</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 Pro Max (Graphite, 1 TB)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 (Blue, 512 GB)</t>
+  </si>
+  <si>
+    <t>82999</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 Pro Max (Silver, 1 TB)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 Pro (Silver, 1 TB)</t>
+  </si>
+  <si>
+    <t>169900</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 Pro Max (Sierra Blue, 1 TB)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 Pro Max (Gold, 1 TB)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 ((PRODUCT)RED, 512 GB)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 (Starlight, 512 GB)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 Pro (Gold, 512 GB)</t>
+  </si>
+  <si>
+    <t>149900</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 (Midnight, 512 GB)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 (Green, 512 GB)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 Pro Max (Graphite, 512 GB)</t>
+  </si>
+  <si>
+    <t>159900</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 Pro Max (Gold, 512 GB)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 (Starlight, 128 GB)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 (Green, 128 GB)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 (Midnight, 128 GB)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 ((PRODUCT)RED, 128 GB)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 (Midnight, 256 GB)</t>
+  </si>
+  <si>
+    <t>62999</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 (Blue, 256 GB)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 (Pink, 512 GB)</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13 (Starlight, 256 GB)</t>
   </si>
 </sst>
 </file>
@@ -596,8 +690,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -633,13 +727,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C04A18F-6CC5-48EE-AF2E-69A3EB27F553}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -681,7 +775,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -728,8 +822,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -814,7 +908,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -968,4 +1062,215 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259CA7B0-D80C-42A4-BE71-7A34280F2C55}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>